--- a/DateBase/orders/Dang Nguyen_2025-6-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-16.xlsx
@@ -698,6 +698,9 @@
       <c r="C31" t="str">
         <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -759,7 +762,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510635575129.56613.5138353030758177.59712480</v>
+        <v>01510635575129.56613.5138353030758177.59712484</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-6-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -702,9 +702,52 @@
         <v>4</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>5</v>
+      </c>
+      <c r="C33" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>657_大丽花 x元素_undefined_undefined_5stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>644_唐松草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L36"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -762,7 +805,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510635575129.56613.5138353030758177.59712484</v>
+        <v>01510635575129.56613.5138353030758177.5971248464.53511</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-6-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-16.xlsx
@@ -807,6 +807,9 @@
       <c r="G2" t="str">
         <v>01510635575129.56613.5138353030758177.5971248464.53511</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
